--- a/data/trans_orig/P23_1_2016_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>285143</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>260245</v>
+        <v>262086</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>311478</v>
+        <v>313374</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4225589297319747</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3856625816863197</v>
+        <v>0.3883911118469562</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4615858702384041</v>
+        <v>0.464395847100517</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>432</v>
@@ -763,19 +763,19 @@
         <v>438151</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>411438</v>
+        <v>415389</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>460318</v>
+        <v>461391</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6522728957054211</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6125047165261865</v>
+        <v>0.618386228117324</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6852718071333632</v>
+        <v>0.6868701009345654</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>712</v>
@@ -784,19 +784,19 @@
         <v>723294</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>684027</v>
+        <v>686449</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>756460</v>
+        <v>760615</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.537154042059693</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.507992580865167</v>
+        <v>0.5097909908842218</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5617849763195859</v>
+        <v>0.5648708063199043</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>139106</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>119100</v>
+        <v>118708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>161528</v>
+        <v>159957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2061434623057192</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.176496752053444</v>
+        <v>0.1759160983997992</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2393712786246026</v>
+        <v>0.2370438503053646</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -834,19 +834,19 @@
         <v>65169</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51241</v>
+        <v>50671</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82286</v>
+        <v>82291</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.097017292966685</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07628255340614634</v>
+        <v>0.07543315165892019</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1224988520500097</v>
+        <v>0.1225057014826188</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>200</v>
@@ -855,19 +855,19 @@
         <v>204275</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>178325</v>
+        <v>177593</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>229085</v>
+        <v>233637</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1517047799195304</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1324330498333384</v>
+        <v>0.1318892745313514</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1701299562341475</v>
+        <v>0.1735107524905584</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>17902</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11010</v>
+        <v>10559</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28873</v>
+        <v>27876</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02652966956967455</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01631667114678593</v>
+        <v>0.01564692334615215</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.042787057922041</v>
+        <v>0.04131041785705977</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -905,19 +905,19 @@
         <v>9898</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5339</v>
+        <v>5227</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17251</v>
+        <v>16917</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01473441396593031</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007948213718129026</v>
+        <v>0.007781208685461211</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0256821147898708</v>
+        <v>0.02518463685951938</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -926,19 +926,19 @@
         <v>27800</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18958</v>
+        <v>19182</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39122</v>
+        <v>40269</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02064548819168439</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0140791576063253</v>
+        <v>0.0142457523987461</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02905379156457043</v>
+        <v>0.02990596156594499</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>232649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>208706</v>
+        <v>207433</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>259821</v>
+        <v>257379</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3447679383926315</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3092852768575462</v>
+        <v>0.3073987836695125</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3850342185697835</v>
+        <v>0.3814150222951102</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>157</v>
@@ -976,19 +976,19 @@
         <v>158512</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137515</v>
+        <v>137954</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>184133</v>
+        <v>182346</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2359753973619636</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2047177603118315</v>
+        <v>0.2053707447420379</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2741179720562227</v>
+        <v>0.2714570520223211</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>377</v>
@@ -997,19 +997,19 @@
         <v>391161</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>360978</v>
+        <v>357218</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>426382</v>
+        <v>422296</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2904956898290922</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2680798395146701</v>
+        <v>0.2652876383039857</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3166523150470937</v>
+        <v>0.3136182309401301</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>468986</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>437881</v>
+        <v>437503</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>499946</v>
+        <v>502395</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4591783465207709</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4287237904259181</v>
+        <v>0.4283537889816247</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4894905834208528</v>
+        <v>0.4918886010925529</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>614</v>
@@ -1122,19 +1122,19 @@
         <v>666129</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>631624</v>
+        <v>636753</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>698133</v>
+        <v>698392</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6392884110461581</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6061737752357244</v>
+        <v>0.6110960521188129</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6700025814889148</v>
+        <v>0.6702516911556257</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1055</v>
@@ -1143,19 +1143,19 @@
         <v>1135115</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1083228</v>
+        <v>1086538</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1180717</v>
+        <v>1185452</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5501336162123209</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5249866908213673</v>
+        <v>0.5265910499085604</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5722344419706238</v>
+        <v>0.5745293071766141</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>217585</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>193765</v>
+        <v>189413</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>244014</v>
+        <v>245095</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2130351466977045</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1897131797455499</v>
+        <v>0.185452240213608</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2389113731975087</v>
+        <v>0.2399697885435074</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -1193,19 +1193,19 @@
         <v>104928</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82723</v>
+        <v>86898</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>123206</v>
+        <v>125778</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.100700280229377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0793899708667192</v>
+        <v>0.08339635473738133</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1182418192372347</v>
+        <v>0.120710371974841</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>307</v>
@@ -1214,19 +1214,19 @@
         <v>322514</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>290550</v>
+        <v>290410</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>357143</v>
+        <v>356318</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1563062342834246</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1408148794436315</v>
+        <v>0.1407473075383846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1730894887361411</v>
+        <v>0.1726896328682245</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>25677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16334</v>
+        <v>16292</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39705</v>
+        <v>38498</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02514037099881575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01599271186019937</v>
+        <v>0.0159512048021619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03887499651018313</v>
+        <v>0.03769291298500273</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -1264,19 +1264,19 @@
         <v>22697</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14095</v>
+        <v>14907</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33760</v>
+        <v>34071</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02178213547115386</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01352750567088421</v>
+        <v>0.01430646516440832</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0323994629247809</v>
+        <v>0.0326985309656253</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>44</v>
@@ -1285,19 +1285,19 @@
         <v>48374</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>36111</v>
+        <v>34548</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>64539</v>
+        <v>65051</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02344446789139569</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01750137762502058</v>
+        <v>0.01674382357052365</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03127893213810794</v>
+        <v>0.03152708828339152</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>309110</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>280017</v>
+        <v>280395</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>338959</v>
+        <v>342111</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3026461357827088</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2741611911952448</v>
+        <v>0.2745309295083019</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3318707422086242</v>
+        <v>0.334956338344692</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>239</v>
@@ -1335,19 +1335,19 @@
         <v>248231</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>219734</v>
+        <v>219779</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>276702</v>
+        <v>276815</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2382291732533111</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2108797613941481</v>
+        <v>0.2109232646654168</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2655525704067666</v>
+        <v>0.2656608339405019</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>520</v>
@@ -1356,19 +1356,19 @@
         <v>557342</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>519006</v>
+        <v>514260</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>601527</v>
+        <v>595685</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2701156816128588</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2515362616689618</v>
+        <v>0.2492359902734342</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2915303836664445</v>
+        <v>0.2886988002132534</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>305161</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>277032</v>
+        <v>279731</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>336082</v>
+        <v>333741</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4022215066919124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3651456824827901</v>
+        <v>0.3687038091254993</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4429777861245922</v>
+        <v>0.4398917899505635</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>437</v>
@@ -1481,19 +1481,19 @@
         <v>475471</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>448124</v>
+        <v>446913</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>502926</v>
+        <v>500035</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6073246196456509</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5723929963127847</v>
+        <v>0.5708469205214</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6423925801375803</v>
+        <v>0.6387002195500886</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>720</v>
@@ -1502,19 +1502,19 @@
         <v>780632</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>738974</v>
+        <v>739870</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>821727</v>
+        <v>823225</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5063833979601101</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4793606167006831</v>
+        <v>0.4799420771114462</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5330412254943974</v>
+        <v>0.5340127947027511</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>144517</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>122822</v>
+        <v>123352</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>169581</v>
+        <v>167232</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.190482981828669</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1618876875262325</v>
+        <v>0.1625864011210591</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2235181803651868</v>
+        <v>0.2204228513247259</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>79</v>
@@ -1552,19 +1552,19 @@
         <v>82166</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>66589</v>
+        <v>64675</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>100626</v>
+        <v>102460</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1049516641247674</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08505513871307102</v>
+        <v>0.0826106538864778</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1285308596080929</v>
+        <v>0.1308729801327816</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>215</v>
@@ -1573,19 +1573,19 @@
         <v>226683</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>198984</v>
+        <v>197370</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>255943</v>
+        <v>255176</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1470457873054004</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1290775895423565</v>
+        <v>0.1280309808185365</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1660264796676358</v>
+        <v>0.1655283967995796</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>16996</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10598</v>
+        <v>9698</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27839</v>
+        <v>26274</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0224018315697411</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01396846865457992</v>
+        <v>0.0127819722344508</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03669335984962162</v>
+        <v>0.03463140826264418</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1623,19 +1623,19 @@
         <v>17593</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9949</v>
+        <v>10665</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27976</v>
+        <v>29294</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0224718823451469</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01270848086503095</v>
+        <v>0.01362238549185093</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0357339704323572</v>
+        <v>0.03741733859240282</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -1644,19 +1644,19 @@
         <v>34589</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25269</v>
+        <v>23034</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48583</v>
+        <v>47288</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02243740695007537</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01639166432347426</v>
+        <v>0.01494153475836847</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03151526377695942</v>
+        <v>0.03067480442570299</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>292014</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>263188</v>
+        <v>264936</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>320921</v>
+        <v>320708</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3848936799096774</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3468984652032477</v>
+        <v>0.3492026236738115</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.422994276797959</v>
+        <v>0.4227134423148015</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>201</v>
@@ -1694,19 +1694,19 @@
         <v>207664</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>183128</v>
+        <v>183716</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>230962</v>
+        <v>231323</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2652518338844349</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2339112699550135</v>
+        <v>0.234662120543055</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.295009740355933</v>
+        <v>0.2954712791775104</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>461</v>
@@ -1715,19 +1715,19 @@
         <v>499678</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>461596</v>
+        <v>460894</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>537537</v>
+        <v>539749</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3241334077844141</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2994302252148396</v>
+        <v>0.2989747665119126</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3486920996922032</v>
+        <v>0.3501267029181122</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>453706</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>423708</v>
+        <v>423720</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>484077</v>
+        <v>484659</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4839187616427753</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4519231476526244</v>
+        <v>0.4519353302602936</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5163114500276165</v>
+        <v>0.5169331335493358</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>592</v>
@@ -1840,19 +1840,19 @@
         <v>650194</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>615787</v>
+        <v>616607</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>682990</v>
+        <v>681365</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6236909835669702</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5906864479579826</v>
+        <v>0.5914726533085229</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6551501196582135</v>
+        <v>0.6535914331055074</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1042</v>
@@ -1861,19 +1861,19 @@
         <v>1103900</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1055324</v>
+        <v>1065091</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1148997</v>
+        <v>1153720</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5575082475232886</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.532975740745343</v>
+        <v>0.5379081115870413</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5802835574602974</v>
+        <v>0.5826690044580135</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>202073</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178648</v>
+        <v>178474</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>227417</v>
+        <v>228655</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2155290552166848</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.190544781454065</v>
+        <v>0.1903581342695203</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2425603757984782</v>
+        <v>0.2438810209556475</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>120</v>
@@ -1911,19 +1911,19 @@
         <v>134916</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>112446</v>
+        <v>111974</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>160083</v>
+        <v>158377</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1294163018436399</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1078626200722456</v>
+        <v>0.1074093248222362</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1535580011775889</v>
+        <v>0.1519213140956111</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>324</v>
@@ -1932,19 +1932,19 @@
         <v>336989</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>304819</v>
+        <v>302859</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>371419</v>
+        <v>371197</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.170191053421774</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1539442477998571</v>
+        <v>0.1529542310363783</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1875797489385182</v>
+        <v>0.1874675002570406</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>25169</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16722</v>
+        <v>16569</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36606</v>
+        <v>36494</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02684548347149543</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01783543961816512</v>
+        <v>0.0176724582147742</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03904324218533937</v>
+        <v>0.03892382165825341</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -1982,19 +1982,19 @@
         <v>24216</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16309</v>
+        <v>15941</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36459</v>
+        <v>36404</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02322927427270122</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01564421894867302</v>
+        <v>0.01529142550928363</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03497269202283247</v>
+        <v>0.0349204635826621</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>48</v>
@@ -2003,19 +2003,19 @@
         <v>49386</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>36210</v>
+        <v>37659</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>64867</v>
+        <v>66962</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02494156456606388</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01828711844659004</v>
+        <v>0.01901908490030756</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03276021413270221</v>
+        <v>0.03381818244122219</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>256618</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>230670</v>
+        <v>229608</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>283988</v>
+        <v>283935</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2737066996690445</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.246030890588116</v>
+        <v>0.2448976701305539</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.302898499323627</v>
+        <v>0.3028419888274866</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>224</v>
@@ -2053,19 +2053,19 @@
         <v>233168</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>205318</v>
+        <v>206238</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>261206</v>
+        <v>261234</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2236634403166888</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1969484920658584</v>
+        <v>0.1978317223167042</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2505584238971454</v>
+        <v>0.2505853798586457</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>476</v>
@@ -2074,19 +2074,19 @@
         <v>489786</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>449600</v>
+        <v>449041</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>528119</v>
+        <v>527484</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2473591344888735</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2270638599495233</v>
+        <v>0.2267814075164872</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2667185939482703</v>
+        <v>0.2663980704800626</v>
       </c>
     </row>
     <row r="23">
@@ -2178,19 +2178,19 @@
         <v>1512996</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1457084</v>
+        <v>1457945</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1573786</v>
+        <v>1579222</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4459937995900738</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4295123441060736</v>
+        <v>0.4297661004291906</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4639132192937351</v>
+        <v>0.4655156749578715</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2075</v>
@@ -2199,19 +2199,19 @@
         <v>2229945</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2167374</v>
+        <v>2165127</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2297459</v>
+        <v>2289146</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6300876540347498</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6124076963580812</v>
+        <v>0.6117728115187643</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6491643457869958</v>
+        <v>0.6468153934602578</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3529</v>
@@ -2220,19 +2220,19 @@
         <v>3742941</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3657053</v>
+        <v>3650266</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3833455</v>
+        <v>3833060</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5399886897402438</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5275977941761679</v>
+        <v>0.5266186675772446</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5530469836492832</v>
+        <v>0.5529900881304646</v>
       </c>
     </row>
     <row r="25">
@@ -2249,19 +2249,19 @@
         <v>703281</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>653028</v>
+        <v>656745</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>749061</v>
+        <v>754237</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2073099158523271</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1924966950859066</v>
+        <v>0.1935922155425106</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2208045904944239</v>
+        <v>0.2223303309293249</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>365</v>
@@ -2270,19 +2270,19 @@
         <v>387179</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>351017</v>
+        <v>348383</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>427816</v>
+        <v>426604</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1094004155006001</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0991823492206081</v>
+        <v>0.09843825104383849</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1208826575741407</v>
+        <v>0.1205401677505838</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1046</v>
@@ -2291,19 +2291,19 @@
         <v>1090460</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1027544</v>
+        <v>1030706</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1151965</v>
+        <v>1163082</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.157319150229109</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1482422452210958</v>
+        <v>0.1486984950277908</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1661922763723642</v>
+        <v>0.1677962366239324</v>
       </c>
     </row>
     <row r="26">
@@ -2320,19 +2320,19 @@
         <v>85745</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>67855</v>
+        <v>69295</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>106229</v>
+        <v>106357</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02527551363332192</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02000197935451804</v>
+        <v>0.02042655422398204</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0313136808077318</v>
+        <v>0.03135154532617775</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>72</v>
@@ -2341,19 +2341,19 @@
         <v>74404</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>59806</v>
+        <v>59067</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>93822</v>
+        <v>92631</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02102331796683824</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01689850649786415</v>
+        <v>0.01668995911509733</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02651008258389173</v>
+        <v>0.02617368020891655</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>153</v>
@@ -2362,19 +2362,19 @@
         <v>160149</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>135671</v>
+        <v>136299</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>186015</v>
+        <v>187686</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02310442179663991</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01957304236668609</v>
+        <v>0.01966368197785931</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02683606342778791</v>
+        <v>0.02707711918948483</v>
       </c>
     </row>
     <row r="27">
@@ -2391,19 +2391,19 @@
         <v>1090392</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1032901</v>
+        <v>1034006</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1147265</v>
+        <v>1146673</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3214207709242772</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3044736486004316</v>
+        <v>0.3047993307146093</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3381855192489536</v>
+        <v>0.3380109153811833</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>821</v>
@@ -2412,19 +2412,19 @@
         <v>847575</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>795408</v>
+        <v>793285</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>902260</v>
+        <v>901754</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2394886124978119</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.224748469136502</v>
+        <v>0.2241485366542341</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2549403789690229</v>
+        <v>0.2547974147981649</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1834</v>
@@ -2433,19 +2433,19 @@
         <v>1937967</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1854040</v>
+        <v>1866061</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2011178</v>
+        <v>2025133</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2795877382340072</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2674796161425477</v>
+        <v>0.2692139544330885</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2901497687024669</v>
+        <v>0.2921630909554056</v>
       </c>
     </row>
     <row r="28">
@@ -2777,19 +2777,19 @@
         <v>373889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>341933</v>
+        <v>345933</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>402126</v>
+        <v>401499</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5421607750552138</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4958219878145825</v>
+        <v>0.5016227888072525</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5831052858666069</v>
+        <v>0.5821959969352088</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>968</v>
@@ -2798,19 +2798,19 @@
         <v>550366</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>529831</v>
+        <v>526663</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>570405</v>
+        <v>567030</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.750724443560655</v>
+        <v>0.7507244435606548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7227145330115949</v>
+        <v>0.7183928040179348</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7780592656942245</v>
+        <v>0.7734545019464573</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1351</v>
@@ -2819,19 +2819,19 @@
         <v>924255</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>889566</v>
+        <v>888910</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>959759</v>
+        <v>958618</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6496299364840621</v>
+        <v>0.6496299364840622</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6252483253517321</v>
+        <v>0.6247872173525556</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6745846789141009</v>
+        <v>0.6737825866397039</v>
       </c>
     </row>
     <row r="5">
@@ -2848,19 +2848,19 @@
         <v>122827</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106481</v>
+        <v>105048</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143154</v>
+        <v>144067</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1781058783496083</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1544036337066923</v>
+        <v>0.1523250831918999</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2075815989002767</v>
+        <v>0.2089059272603644</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -2869,19 +2869,19 @@
         <v>52856</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41245</v>
+        <v>42496</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64390</v>
+        <v>66604</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07209739090446549</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0562605171145695</v>
+        <v>0.05796697425604359</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08783078326259838</v>
+        <v>0.09085097085675831</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>240</v>
@@ -2890,19 +2890,19 @@
         <v>175682</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>155011</v>
+        <v>155451</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>201001</v>
+        <v>200180</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1234815838513894</v>
+        <v>0.1234815838513895</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1089525565590491</v>
+        <v>0.1092619527179229</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1412769555055822</v>
+        <v>0.1406999959312015</v>
       </c>
     </row>
     <row r="6">
@@ -2919,19 +2919,19 @@
         <v>8884</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4268</v>
+        <v>4140</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17548</v>
+        <v>17333</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01288170443451653</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006188969615934821</v>
+        <v>0.006003759709797036</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02544528483027698</v>
+        <v>0.02513382415367433</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -2940,19 +2940,19 @@
         <v>9956</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5636</v>
+        <v>6057</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15001</v>
+        <v>15424</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01358057660404203</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007687702536572378</v>
+        <v>0.008262054798110435</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.020462309593904</v>
+        <v>0.02103913629714155</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -2961,19 +2961,19 @@
         <v>18840</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12480</v>
+        <v>11859</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28128</v>
+        <v>28364</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01324182087542439</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00877167328279497</v>
+        <v>0.008335458669411787</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01977034311305136</v>
+        <v>0.0199364119990443</v>
       </c>
     </row>
     <row r="7">
@@ -2990,19 +2990,19 @@
         <v>184028</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>160513</v>
+        <v>160263</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>211664</v>
+        <v>212319</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2668516421606614</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2327523463121002</v>
+        <v>0.2323901789691091</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3069250983370294</v>
+        <v>0.3078751494226225</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>169</v>
@@ -3011,19 +3011,19 @@
         <v>119936</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>103694</v>
+        <v>104321</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>139833</v>
+        <v>142125</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1635975889308375</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1414436161303167</v>
+        <v>0.1422982546528752</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1907393352274794</v>
+        <v>0.1938650344704505</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>350</v>
@@ -3032,19 +3032,19 @@
         <v>303964</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>273742</v>
+        <v>275173</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>335867</v>
+        <v>337213</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2136466587891239</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1924044181978893</v>
+        <v>0.1934105350814731</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2360701177587541</v>
+        <v>0.2370164246012294</v>
       </c>
     </row>
     <row r="8">
@@ -3136,19 +3136,19 @@
         <v>619541</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>586745</v>
+        <v>585211</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>657702</v>
+        <v>655297</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5912913192635285</v>
+        <v>0.5912913192635284</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5599910281202588</v>
+        <v>0.5585267310192542</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6277122245286649</v>
+        <v>0.6254166802386562</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1126</v>
@@ -3157,19 +3157,19 @@
         <v>784958</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>759368</v>
+        <v>756597</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>807584</v>
+        <v>809065</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7330313477543234</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7091347287023201</v>
+        <v>0.7065464166417834</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7541606327304801</v>
+        <v>0.7555441635595767</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1671</v>
@@ -3178,19 +3178,19 @@
         <v>1404499</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1360560</v>
+        <v>1360891</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1444542</v>
+        <v>1449493</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.6629328016865487</v>
+        <v>0.6629328016865488</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6421933721209552</v>
+        <v>0.6423495766086711</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6818335524188556</v>
+        <v>0.6841705551543706</v>
       </c>
     </row>
     <row r="10">
@@ -3207,19 +3207,19 @@
         <v>173283</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>146262</v>
+        <v>148794</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>197308</v>
+        <v>200174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1653817980944818</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1395925873274533</v>
+        <v>0.1420095715297156</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1883111362496372</v>
+        <v>0.1910466175139587</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>130</v>
@@ -3228,19 +3228,19 @@
         <v>90061</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77538</v>
+        <v>75823</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107498</v>
+        <v>106983</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08410372350402344</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07240909346651943</v>
+        <v>0.07080703565401253</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1003865284868892</v>
+        <v>0.09990551644708934</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>323</v>
@@ -3249,19 +3249,19 @@
         <v>263345</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>236578</v>
+        <v>235932</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>291683</v>
+        <v>295965</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1243003773120145</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1116664356329673</v>
+        <v>0.1113616926224612</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1376764089299864</v>
+        <v>0.1396975979913093</v>
       </c>
     </row>
     <row r="11">
@@ -3278,19 +3278,19 @@
         <v>20966</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11590</v>
+        <v>10948</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36671</v>
+        <v>38300</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0200099874667096</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01106169152790873</v>
+        <v>0.01044908885294666</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03499895989879843</v>
+        <v>0.03655334067092098</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -3299,19 +3299,19 @@
         <v>23064</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15743</v>
+        <v>14853</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35847</v>
+        <v>34635</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02153783403442514</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01470170845641025</v>
+        <v>0.01387037029724561</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0334760427656363</v>
+        <v>0.03234344725301129</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -3320,19 +3320,19 @@
         <v>44030</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>31675</v>
+        <v>31054</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>64805</v>
+        <v>63168</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02078222657369675</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01495074725523411</v>
+        <v>0.01465752835022745</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03058818233590346</v>
+        <v>0.02981551393947829</v>
       </c>
     </row>
     <row r="12">
@@ -3349,19 +3349,19 @@
         <v>233986</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>203342</v>
+        <v>204266</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>263992</v>
+        <v>267160</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2233168951752801</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1940702310523292</v>
+        <v>0.1949520396597234</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.251954972951239</v>
+        <v>0.2549783198012578</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>232</v>
@@ -3370,19 +3370,19 @@
         <v>172755</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>153597</v>
+        <v>152871</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>196049</v>
+        <v>197414</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.161327094707228</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1434358891995273</v>
+        <v>0.1427585870470573</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.183080060507675</v>
+        <v>0.1843551281826818</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>444</v>
@@ -3391,19 +3391,19 @@
         <v>406741</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>373785</v>
+        <v>370025</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>449148</v>
+        <v>447959</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.19198459442774</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1764291526507036</v>
+        <v>0.1746542178974657</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2120007498153586</v>
+        <v>0.2114396230841526</v>
       </c>
     </row>
     <row r="13">
@@ -3495,19 +3495,19 @@
         <v>422128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>388804</v>
+        <v>386087</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>453900</v>
+        <v>452530</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5264131009598151</v>
+        <v>0.526413100959815</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.484856462582757</v>
+        <v>0.4814685152314089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5660338914588309</v>
+        <v>0.5643252133856113</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>721</v>
@@ -3516,19 +3516,19 @@
         <v>554727</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>530148</v>
+        <v>529878</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>579457</v>
+        <v>579298</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6829438197289941</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6526829763274262</v>
+        <v>0.6523514957027127</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7133890589183737</v>
+        <v>0.7131933527254073</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1065</v>
@@ -3537,19 +3537,19 @@
         <v>976855</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>934217</v>
+        <v>934118</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1020172</v>
+        <v>1016199</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6051809596820436</v>
+        <v>0.6051809596820437</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5787658292049357</v>
+        <v>0.5787045980634433</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6320163923940034</v>
+        <v>0.6295552422632976</v>
       </c>
     </row>
     <row r="15">
@@ -3566,19 +3566,19 @@
         <v>165441</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>143364</v>
+        <v>141844</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>191903</v>
+        <v>192705</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2063120491492879</v>
+        <v>0.2063120491492878</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1787813318427179</v>
+        <v>0.1768861242154046</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2393121748918492</v>
+        <v>0.2403115463686995</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>107</v>
@@ -3587,19 +3587,19 @@
         <v>83611</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>67592</v>
+        <v>70465</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>99298</v>
+        <v>102557</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1029357821144212</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08321530158049451</v>
+        <v>0.08675196702133166</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1222493393088889</v>
+        <v>0.1262614919406402</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>274</v>
@@ -3608,19 +3608,19 @@
         <v>249051</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>220543</v>
+        <v>220608</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>278762</v>
+        <v>278898</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1542920542175514</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1366310046212406</v>
+        <v>0.1366711774457372</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1726982503193002</v>
+        <v>0.1727828597674431</v>
       </c>
     </row>
     <row r="16">
@@ -3637,19 +3637,19 @@
         <v>33178</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19786</v>
+        <v>20233</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51171</v>
+        <v>52327</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04137481246760348</v>
+        <v>0.04137481246760347</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02467435633653035</v>
+        <v>0.02523133452551795</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06381216985402087</v>
+        <v>0.06525362631388863</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -3658,19 +3658,19 @@
         <v>22872</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15220</v>
+        <v>14527</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34326</v>
+        <v>32944</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02815854361774502</v>
+        <v>0.02815854361774503</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01873806663771406</v>
+        <v>0.01788462995647618</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04226053043730001</v>
+        <v>0.04055859142420015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -3679,19 +3679,19 @@
         <v>56050</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41069</v>
+        <v>40813</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79478</v>
+        <v>81108</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03472425080286257</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02544329101836808</v>
+        <v>0.02528446738516114</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04923817587597843</v>
+        <v>0.05024806576761931</v>
       </c>
     </row>
     <row r="17">
@@ -3708,19 +3708,19 @@
         <v>181148</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154428</v>
+        <v>155259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210130</v>
+        <v>210436</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2259000374232938</v>
+        <v>0.2259000374232937</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1925788374955217</v>
+        <v>0.1936147683932362</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2620415766055437</v>
+        <v>0.2624239837992257</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>192</v>
@@ -3729,19 +3729,19 @@
         <v>151049</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>130656</v>
+        <v>130020</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>172215</v>
+        <v>171943</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1859618545388396</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1608549214276199</v>
+        <v>0.1600716996064508</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2120195737132553</v>
+        <v>0.2116843871057071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>336</v>
@@ -3750,19 +3750,19 @@
         <v>332197</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>299265</v>
+        <v>298112</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>367679</v>
+        <v>370634</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2058027352975423</v>
+        <v>0.2058027352975424</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1854006259584262</v>
+        <v>0.1846860050359146</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2277843980195382</v>
+        <v>0.2296152355400495</v>
       </c>
     </row>
     <row r="18">
@@ -3854,19 +3854,19 @@
         <v>548647</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>515457</v>
+        <v>517546</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>580355</v>
+        <v>581128</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5541540453115256</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.520630925166164</v>
+        <v>0.5227410748493435</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5861803253866937</v>
+        <v>0.5869612812099176</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1068</v>
@@ -3875,19 +3875,19 @@
         <v>767572</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>740572</v>
+        <v>739623</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>793144</v>
+        <v>795643</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6883006851203667</v>
+        <v>0.6883006851203668</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6640889965923056</v>
+        <v>0.6632376399336535</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7112313397689893</v>
+        <v>0.7134726998609476</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1595</v>
@@ -3896,19 +3896,19 @@
         <v>1316219</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1272418</v>
+        <v>1271929</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1359571</v>
+        <v>1360274</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6252133222669231</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6044076145358601</v>
+        <v>0.6041750603330881</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.645805837300334</v>
+        <v>0.6461395703499991</v>
       </c>
     </row>
     <row r="20">
@@ -3925,19 +3925,19 @@
         <v>201857</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178421</v>
+        <v>178324</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>230270</v>
+        <v>231012</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2038834639472986</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1802122802157451</v>
+        <v>0.1801144223668462</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2325815874878339</v>
+        <v>0.2333307294745111</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -3946,19 +3946,19 @@
         <v>140015</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>120312</v>
+        <v>122601</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>159758</v>
+        <v>161512</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1255552503701859</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1078865952830649</v>
+        <v>0.1099393921258281</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1432589696380401</v>
+        <v>0.1448313079359141</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>452</v>
@@ -3967,19 +3967,19 @@
         <v>341873</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>312643</v>
+        <v>309131</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>373968</v>
+        <v>374388</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1623919571161991</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1485076074361209</v>
+        <v>0.1468394179693351</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1776372689569267</v>
+        <v>0.1778371384042185</v>
       </c>
     </row>
     <row r="21">
@@ -3996,19 +3996,19 @@
         <v>16661</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9305</v>
+        <v>8637</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28848</v>
+        <v>28292</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01682788046246542</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.009398594690509082</v>
+        <v>0.008723755070280764</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02913751608970428</v>
+        <v>0.02857613318343842</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>29</v>
@@ -4017,19 +4017,19 @@
         <v>20841</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14636</v>
+        <v>14311</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30552</v>
+        <v>30322</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01868894663863201</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01312446349343845</v>
+        <v>0.01283257906361641</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02739659109436089</v>
+        <v>0.02719050241743125</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>43</v>
@@ -4038,19 +4038,19 @@
         <v>37502</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>26803</v>
+        <v>26372</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>51526</v>
+        <v>51976</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01781371221369672</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01273150062749309</v>
+        <v>0.01252678353621487</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02447526976695024</v>
+        <v>0.02468881272714075</v>
       </c>
     </row>
     <row r="22">
@@ -4067,19 +4067,19 @@
         <v>222897</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>195555</v>
+        <v>195248</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>249120</v>
+        <v>250051</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2251346102787104</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1975182916416271</v>
+        <v>0.1972077854077308</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2516203297390647</v>
+        <v>0.2525606235067631</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>256</v>
@@ -4088,19 +4088,19 @@
         <v>186741</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>165866</v>
+        <v>166180</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>210080</v>
+        <v>209472</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1674551178708154</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1487357380169232</v>
+        <v>0.1490180285156344</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1883837530240396</v>
+        <v>0.1878388399931938</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>475</v>
@@ -4109,19 +4109,19 @@
         <v>409638</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>375558</v>
+        <v>374797</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>448450</v>
+        <v>446063</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1945810084031811</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.178392812429272</v>
+        <v>0.1780310719639699</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2130170930372696</v>
+        <v>0.2118828558527783</v>
       </c>
     </row>
     <row r="23">
@@ -4213,19 +4213,19 @@
         <v>1964205</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1897952</v>
+        <v>1900615</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2023419</v>
+        <v>2029618</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5565327501009546</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5377607224232632</v>
+        <v>0.538515302034123</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5733102850124038</v>
+        <v>0.5750667624491806</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3883</v>
@@ -4234,19 +4234,19 @@
         <v>2657623</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2610180</v>
+        <v>2605440</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2706485</v>
+        <v>2705860</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7122360195297084</v>
+        <v>0.7122360195297082</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6995212735889615</v>
+        <v>0.6982510467306072</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7253307884585781</v>
+        <v>0.7251632912519943</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5682</v>
@@ -4255,19 +4255,19 @@
         <v>4621828</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4544004</v>
+        <v>4534692</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4704577</v>
+        <v>4707644</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.6365504866575343</v>
+        <v>0.6365504866575342</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6258321059623767</v>
+        <v>0.6245495251827119</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6479473619577411</v>
+        <v>0.6483697607866755</v>
       </c>
     </row>
     <row r="25">
@@ -4284,19 +4284,19 @@
         <v>663408</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>617455</v>
+        <v>619828</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>709894</v>
+        <v>712187</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1879682382793692</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.174948186469735</v>
+        <v>0.1756205147130682</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2011394400142911</v>
+        <v>0.201789171700307</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>526</v>
@@ -4305,19 +4305,19 @@
         <v>366543</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>336342</v>
+        <v>339648</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>401101</v>
+        <v>399663</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0982325421126517</v>
+        <v>0.09823254211265169</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09013864715065766</v>
+        <v>0.09102477497782381</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1074939738558148</v>
+        <v>0.1071087043942256</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1289</v>
@@ -4326,19 +4326,19 @@
         <v>1029951</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>973152</v>
+        <v>972218</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1081848</v>
+        <v>1086563</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1418520114208492</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1340292665893213</v>
+        <v>0.1339007272906237</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1489997439297438</v>
+        <v>0.1496490313241992</v>
       </c>
     </row>
     <row r="26">
@@ -4355,19 +4355,19 @@
         <v>79688</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>59030</v>
+        <v>60679</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>106310</v>
+        <v>107477</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02257872521900235</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01672537858933066</v>
+        <v>0.01719251606354184</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03012168334245065</v>
+        <v>0.03045236725108229</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>103</v>
@@ -4376,19 +4376,19 @@
         <v>76733</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>63194</v>
+        <v>61213</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>95316</v>
+        <v>94969</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.02056424389081857</v>
+        <v>0.02056424389081856</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01693589125854263</v>
+        <v>0.01640485309992923</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02554450049523973</v>
+        <v>0.02545157413234628</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>158</v>
@@ -4397,19 +4397,19 @@
         <v>156421</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>129797</v>
+        <v>131772</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>186072</v>
+        <v>189346</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02154345963461128</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01787648474453463</v>
+        <v>0.0181485204218441</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02562709915298617</v>
+        <v>0.0260780018245827</v>
       </c>
     </row>
     <row r="27">
@@ -4426,19 +4426,19 @@
         <v>822060</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>768167</v>
+        <v>768505</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>878540</v>
+        <v>875947</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.232920286400674</v>
+        <v>0.2329202864006739</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2176505075399477</v>
+        <v>0.2177460946047874</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2489232168708154</v>
+        <v>0.2481886344062854</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>849</v>
@@ -4447,19 +4447,19 @@
         <v>630481</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>589467</v>
+        <v>591246</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>670865</v>
+        <v>678133</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1689671944668214</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.157975652036824</v>
+        <v>0.1584522440002269</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1797901128163412</v>
+        <v>0.1817378517229384</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1605</v>
@@ -4468,19 +4468,19 @@
         <v>1452540</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1383567</v>
+        <v>1387153</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1524182</v>
+        <v>1528361</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2000540422870054</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1905545921188131</v>
+        <v>0.1910484833846902</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2099210109401287</v>
+        <v>0.2104965900497094</v>
       </c>
     </row>
     <row r="28">
